--- a/StructureDefinition-hc-care-team.xlsx
+++ b/StructureDefinition-hc-care-team.xlsx
@@ -589,7 +589,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://healthconnect.institute//StructureDefinition/hc-care-team|Patient|https://healthconnect.institute//StructureDefinition/hc-practitioner)
+    <t xml:space="preserve">Reference(https://healthconnect.institute/StructureDefinition/hc-care-team|Patient|https://healthconnect.institute/StructureDefinition/hc-practitioner)
 </t>
   </si>
   <si>
